--- a/biology/Zoologie/Gourami_bleu/Gourami_bleu.xlsx
+++ b/biology/Zoologie/Gourami_bleu/Gourami_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichopodus trichopterus
-Le Gourami bleu (Trichopodus trichopterus) est un poisson de la famille des Osphronémidés, endémique du sud-est de l'Asie. On le trouve en Birmanie, dans la péninsule malaise, en Thaïlande en particulier dans le fleuve Chao Phraya, le fleuve Mékong et dans les îles de Java, Sumatra et Bornéo[1]. Généralement bleu ciel avec quelques taches sur les flancs, il en existe différentes variantes telles que le "cosby" présentant des marbrures noires et l'"albinos" qui présente une couleur jaune doré. Facilement maintenable en aquarium, il est très répandu dans les commerces aquariophiles.
+Le Gourami bleu (Trichopodus trichopterus) est un poisson de la famille des Osphronémidés, endémique du sud-est de l'Asie. On le trouve en Birmanie, dans la péninsule malaise, en Thaïlande en particulier dans le fleuve Chao Phraya, le fleuve Mékong et dans les îles de Java, Sumatra et Bornéo. Généralement bleu ciel avec quelques taches sur les flancs, il en existe différentes variantes telles que le "cosby" présentant des marbrures noires et l'"albinos" qui présente une couleur jaune doré. Facilement maintenable en aquarium, il est très répandu dans les commerces aquariophiles.
 </t>
         </is>
       </c>
@@ -512,19 +524,14 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gourami bleu
-Gourami à trois taches[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gourami bleu
+Gourami à trois taches
 Gourami bleu trois points noirs
-Gouramy doré (pour la variante albinos)
-Comportement
-Le Gourami bleu est un poisson paisible et très vif en bas âge. Les mâles cohabitent mal entre eux et peuvent parfois pourchasser les femelles.
-Description
-Poisson assez long (10 à 15 cm), avec des nageoires dorsales et anales très développées. Il porte deux filaments très longs sur l'abdomen, garnis de cellules olfactives et gustatives. La bouche orientée vers le haut en fait un poisson vivant dans le haut du plan d'eau. La variété "classique" comporte une tache bleu foncé sur le milieu du flanc ainsi que sur le pédoncule caudal. La variété "cosby" n'est pas tachée mais marbrée. Finalement, la variante albinos est jaune doré uni. Dans tous les cas, les nageoires sont tachetées de blanc.
-Alimentation
-Omnivore : flocons ou granulés pour poissons d'ornement. De temps en temps, un moustique vivant ou mort ne lui fait pas de mal. Les compléments alimentaires tels que le krill, les artémias etc. sont acceptés et sans danger pour le gourami bleu (et n'importe quel autre gourami).
-</t>
+Gouramy doré (pour la variante albinos)</t>
         </is>
       </c>
     </row>
@@ -549,10 +556,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Noms communs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gourami bleu est un poisson paisible et très vif en bas âge. Les mâles cohabitent mal entre eux et peuvent parfois pourchasser les femelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gourami_bleu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_bleu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Noms communs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poisson assez long (10 à 15 cm), avec des nageoires dorsales et anales très développées. Il porte deux filaments très longs sur l'abdomen, garnis de cellules olfactives et gustatives. La bouche orientée vers le haut en fait un poisson vivant dans le haut du plan d'eau. La variété "classique" comporte une tache bleu foncé sur le milieu du flanc ainsi que sur le pédoncule caudal. La variété "cosby" n'est pas tachée mais marbrée. Finalement, la variante albinos est jaune doré uni. Dans tous les cas, les nageoires sont tachetées de blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gourami_bleu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_bleu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Noms communs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omnivore : flocons ou granulés pour poissons d'ornement. De temps en temps, un moustique vivant ou mort ne lui fait pas de mal. Les compléments alimentaires tels que le krill, les artémias etc. sont acceptés et sans danger pour le gourami bleu (et n'importe quel autre gourami).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gourami_bleu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_bleu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
